--- a/Financial Model.xlsx
+++ b/Financial Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\EV Market Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E1518-DB3B-4831-8340-AC81C4AF4467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0339F837-0623-497A-A0F8-D95394354AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="736" firstSheet="1" activeTab="6" xr2:uid="{51C94CC5-0C2F-6D4D-9C41-E0029B3FD163}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="736" activeTab="6" xr2:uid="{51C94CC5-0C2F-6D4D-9C41-E0029B3FD163}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Income Statement" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="6. Sensitivity Analysis" sheetId="9" r:id="rId6"/>
     <sheet name="7. Scenario Analysis" sheetId="10" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1714,6 +1717,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1. Income Statement'!$D$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\E</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1. Income Statement'!$D$46:$J$46</c:f>
@@ -1745,21 +1778,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Financial Model'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D07-0B45-88F4-ED0267082B3C}"/>
             </c:ext>
@@ -1789,6 +1807,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1. Income Statement'!$D$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\E</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1. Income Statement'!$D$62:$J$62</c:f>
@@ -1820,21 +1868,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Financial Model'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9D07-0B45-88F4-ED0267082B3C}"/>
             </c:ext>
@@ -1853,14 +1886,14 @@
         <c:axId val="1273369040"/>
         <c:axId val="1272187392"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1273369040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\E" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1900,10 +1933,9 @@
         <c:crossAx val="1272187392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1272187392"/>
         <c:scaling>
@@ -2085,7 +2117,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2101,14 +2133,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7. Scenario Analysis'!$B$4:$C$4</c:f>
+              <c:f>'7. Scenario Analysis'!$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Revenue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>₹</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2123,6 +2152,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'7. Scenario Analysis'!$D$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\E</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'7. Scenario Analysis'!$D$4:$J$4</c:f>
@@ -2164,14 +2223,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7. Scenario Analysis'!$B$5:$C$5</c:f>
+              <c:f>'7. Scenario Analysis'!$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Cost</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>₹</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2186,6 +2242,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'7. Scenario Analysis'!$D$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\E</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'7. Scenario Analysis'!$D$5:$J$5</c:f>
@@ -2235,24 +2321,56 @@
         <c:axId val="1774732559"/>
         <c:axId val="1774731119"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1774732559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="yyyy\E" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1774731119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1774731119"/>
         <c:scaling>
@@ -3559,10 +3677,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3600,7 +3731,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3706,7 +3837,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3848,7 +3979,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3859,9 +3990,9 @@
   <dimension ref="A2:J73"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="D60" sqref="D60"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23:J23"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5733,7 +5864,7 @@
   <dimension ref="B2:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -6956,21 +7087,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="76"/>
-    <col min="2" max="2" width="25.6640625" style="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.58203125" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="76" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.58203125" style="76" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="76" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="76" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.9140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.58203125" style="76" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="76"/>
+    <col min="6" max="6" width="12.58203125" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.58203125" style="76" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="76"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8284,7 +8414,7 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -9312,17 +9442,17 @@
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="D60" sqref="D60"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="224" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="224" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
@@ -9380,31 +9510,31 @@
         <v>₹</v>
       </c>
       <c r="D4" s="231">
-        <f>CHOOSE($D$11,D36,D37,D38)</f>
+        <f t="shared" ref="D4:J4" si="1">CHOOSE($D$11,D36,D37,D38)</f>
         <v>4352643351.000001</v>
       </c>
       <c r="E4" s="231">
-        <f>CHOOSE($D$11,E36,E37,E38)</f>
+        <f t="shared" si="1"/>
         <v>5772654657</v>
       </c>
       <c r="F4" s="231">
-        <f>CHOOSE($D$11,F36,F37,F38)</f>
+        <f t="shared" si="1"/>
         <v>6945707475</v>
       </c>
       <c r="G4" s="231">
-        <f>CHOOSE($D$11,G36,G37,G38)</f>
+        <f t="shared" si="1"/>
         <v>9251682356.7000008</v>
       </c>
       <c r="H4" s="231">
-        <f>CHOOSE($D$11,H36,H37,H38)</f>
+        <f t="shared" si="1"/>
         <v>12307793645.700001</v>
       </c>
       <c r="I4" s="231">
-        <f>CHOOSE($D$11,I36,I37,I38)</f>
+        <f t="shared" si="1"/>
         <v>16419652470.900003</v>
       </c>
       <c r="J4" s="231">
-        <f>CHOOSE($D$11,J36,J37,J38)</f>
+        <f t="shared" si="1"/>
         <v>21865087131.300003</v>
       </c>
     </row>
@@ -9417,31 +9547,31 @@
         <v>₹</v>
       </c>
       <c r="D5" s="232">
-        <f>CHOOSE($D$11,D41,D42,D43)</f>
+        <f t="shared" ref="D5:J5" si="2">CHOOSE($D$11,D41,D42,D43)</f>
         <v>1961421616.6666667</v>
       </c>
       <c r="E5" s="232">
-        <f>CHOOSE($D$11,E41,E42,E43)</f>
+        <f t="shared" si="2"/>
         <v>2457442466.166667</v>
       </c>
       <c r="F5" s="232">
-        <f>CHOOSE($D$11,F41,F42,F43)</f>
+        <f t="shared" si="2"/>
         <v>2845163726.541667</v>
       </c>
       <c r="G5" s="232">
-        <f>CHOOSE($D$11,G41,G42,G43)</f>
+        <f t="shared" si="2"/>
         <v>3621248013.8692713</v>
       </c>
       <c r="H5" s="232">
-        <f>CHOOSE($D$11,H41,H42,H43)</f>
+        <f t="shared" si="2"/>
         <v>4630132512.5657387</v>
       </c>
       <c r="I5" s="232">
-        <f>CHOOSE($D$11,I41,I42,I43)</f>
+        <f t="shared" si="2"/>
         <v>5963049975.6179466</v>
       </c>
       <c r="J5" s="232">
-        <f>CHOOSE($D$11,J41,J42,J43)</f>
+        <f t="shared" si="2"/>
         <v>7694731181.2568188</v>
       </c>
     </row>
@@ -9458,27 +9588,27 @@
         <v>2391221734.333334</v>
       </c>
       <c r="E6" s="233">
-        <f t="shared" ref="E6:J6" si="1">E4-E5</f>
+        <f t="shared" ref="E6:J6" si="3">E4-E5</f>
         <v>3315212190.833333</v>
       </c>
       <c r="F6" s="233">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4100543748.458333</v>
       </c>
       <c r="G6" s="233">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5630434342.8307295</v>
       </c>
       <c r="H6" s="233">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7677661133.1342621</v>
       </c>
       <c r="I6" s="233">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10456602495.282057</v>
       </c>
       <c r="J6" s="233">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14170355950.043184</v>
       </c>
     </row>
@@ -9524,27 +9654,27 @@
         <v>597805433.58333349</v>
       </c>
       <c r="E8" s="230">
-        <f t="shared" ref="E8:J8" si="2">IF(E6&gt;0,E6*E7,"NA")</f>
+        <f t="shared" ref="E8:J8" si="4">IF(E6&gt;0,E6*E7,"NA")</f>
         <v>828803047.70833325</v>
       </c>
       <c r="F8" s="230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1025135937.1145833</v>
       </c>
       <c r="G8" s="230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1407608585.7076824</v>
       </c>
       <c r="H8" s="230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1919415283.2835655</v>
       </c>
       <c r="I8" s="230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2614150623.8205142</v>
       </c>
       <c r="J8" s="230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3542588987.5107961</v>
       </c>
     </row>
@@ -9561,27 +9691,27 @@
         <v>1793416300.7500005</v>
       </c>
       <c r="E9" s="235">
-        <f t="shared" ref="E9:J9" si="3">IFERROR(E6-E8,E6)</f>
+        <f t="shared" ref="E9:J9" si="5">IFERROR(E6-E8,E6)</f>
         <v>2486409143.125</v>
       </c>
       <c r="F9" s="235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3075407811.34375</v>
       </c>
       <c r="G9" s="235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4222825757.1230469</v>
       </c>
       <c r="H9" s="235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5758245849.8506966</v>
       </c>
       <c r="I9" s="235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7842451871.4615421</v>
       </c>
       <c r="J9" s="235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10627766962.532389</v>
       </c>
     </row>
@@ -10155,27 +10285,27 @@
         <v>4352643351.000001</v>
       </c>
       <c r="E36" s="175">
-        <f t="shared" ref="E36:J36" si="4">E31*E17+E32*E16+E34*E18</f>
+        <f t="shared" ref="E36:J36" si="6">E31*E17+E32*E16+E34*E18</f>
         <v>5772654657</v>
       </c>
       <c r="F36" s="175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6945707475</v>
       </c>
       <c r="G36" s="175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9251682356.7000008</v>
       </c>
       <c r="H36" s="175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12307793645.700001</v>
       </c>
       <c r="I36" s="175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16419652470.900003</v>
       </c>
       <c r="J36" s="175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21865087131.300003</v>
       </c>
     </row>
@@ -10192,27 +10322,27 @@
         <v>2043069696</v>
       </c>
       <c r="E37" s="175">
-        <f t="shared" ref="E37:J37" si="5">E32*E21+E33*E23+E31*E22</f>
+        <f t="shared" ref="E37:J37" si="7">E32*E21+E33*E23+E31*E22</f>
         <v>2709603072</v>
       </c>
       <c r="F37" s="175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3260217600</v>
       </c>
       <c r="G37" s="175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4342609843.1999998</v>
       </c>
       <c r="H37" s="175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5777105587.1999998</v>
       </c>
       <c r="I37" s="175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7707154406.3999996</v>
       </c>
       <c r="J37" s="175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10263165004.799999</v>
       </c>
     </row>
@@ -10229,27 +10359,27 @@
         <v>1021534848</v>
       </c>
       <c r="E38" s="179">
-        <f t="shared" ref="E38:J38" si="6">E32*E26+E33*E28+E31*E27</f>
+        <f t="shared" ref="E38:J38" si="8">E32*E26+E33*E28+E31*E27</f>
         <v>1354801536</v>
       </c>
       <c r="F38" s="179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1630108800</v>
       </c>
       <c r="G38" s="179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2171304921.5999999</v>
       </c>
       <c r="H38" s="179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2888552793.5999999</v>
       </c>
       <c r="I38" s="179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3853577203.1999998</v>
       </c>
       <c r="J38" s="179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5131582502.3999996</v>
       </c>
     </row>

--- a/Financial Model.xlsx
+++ b/Financial Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\EV Market Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0339F837-0623-497A-A0F8-D95394354AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BF305B-248C-47C3-AB5E-914F2CA507FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="736" activeTab="6" xr2:uid="{51C94CC5-0C2F-6D4D-9C41-E0029B3FD163}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="6. Sensitivity Analysis" sheetId="9" r:id="rId6"/>
     <sheet name="7. Scenario Analysis" sheetId="10" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2063,65 +2060,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2189,25 +2128,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4352643351.000001</c:v>
+                  <c:v>2043069696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5772654657</c:v>
+                  <c:v>2709603072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6945707475</c:v>
+                  <c:v>3260217600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9251682356.7000008</c:v>
+                  <c:v>4342609843.1999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12307793645.700001</c:v>
+                  <c:v>5777105587.1999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16419652470.900003</c:v>
+                  <c:v>7707154406.3999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21865087131.300003</c:v>
+                  <c:v>10263165004.799999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,25 +2218,25 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1961421616.6666667</c:v>
+                  <c:v>2064654333.3333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2457442466.166667</c:v>
+                  <c:v>2586781543.3333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2845163726.541667</c:v>
+                  <c:v>2994909185.8333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3621248013.8692713</c:v>
+                  <c:v>3811840014.5992332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4630132512.5657387</c:v>
+                  <c:v>4873823697.4376202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5963049975.6179466</c:v>
+                  <c:v>6276894711.1767864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7694731181.2568188</c:v>
+                  <c:v>8099717032.9019146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,19 +3616,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -9442,9 +9368,9 @@
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="D60" sqref="D60"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9511,31 +9437,31 @@
       </c>
       <c r="D4" s="231">
         <f t="shared" ref="D4:J4" si="1">CHOOSE($D$11,D36,D37,D38)</f>
-        <v>4352643351.000001</v>
+        <v>2043069696</v>
       </c>
       <c r="E4" s="231">
         <f t="shared" si="1"/>
-        <v>5772654657</v>
+        <v>2709603072</v>
       </c>
       <c r="F4" s="231">
         <f t="shared" si="1"/>
-        <v>6945707475</v>
+        <v>3260217600</v>
       </c>
       <c r="G4" s="231">
         <f t="shared" si="1"/>
-        <v>9251682356.7000008</v>
+        <v>4342609843.1999998</v>
       </c>
       <c r="H4" s="231">
         <f t="shared" si="1"/>
-        <v>12307793645.700001</v>
+        <v>5777105587.1999998</v>
       </c>
       <c r="I4" s="231">
         <f t="shared" si="1"/>
-        <v>16419652470.900003</v>
+        <v>7707154406.3999996</v>
       </c>
       <c r="J4" s="231">
         <f t="shared" si="1"/>
-        <v>21865087131.300003</v>
+        <v>10263165004.799999</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -9548,31 +9474,31 @@
       </c>
       <c r="D5" s="232">
         <f t="shared" ref="D5:J5" si="2">CHOOSE($D$11,D41,D42,D43)</f>
-        <v>1961421616.6666667</v>
+        <v>2064654333.3333335</v>
       </c>
       <c r="E5" s="232">
         <f t="shared" si="2"/>
-        <v>2457442466.166667</v>
+        <v>2586781543.3333335</v>
       </c>
       <c r="F5" s="232">
         <f t="shared" si="2"/>
-        <v>2845163726.541667</v>
+        <v>2994909185.8333335</v>
       </c>
       <c r="G5" s="232">
         <f t="shared" si="2"/>
-        <v>3621248013.8692713</v>
+        <v>3811840014.5992332</v>
       </c>
       <c r="H5" s="232">
         <f t="shared" si="2"/>
-        <v>4630132512.5657387</v>
+        <v>4873823697.4376202</v>
       </c>
       <c r="I5" s="232">
         <f t="shared" si="2"/>
-        <v>5963049975.6179466</v>
+        <v>6276894711.1767864</v>
       </c>
       <c r="J5" s="232">
         <f t="shared" si="2"/>
-        <v>7694731181.2568188</v>
+        <v>8099717032.9019146</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
@@ -9585,31 +9511,31 @@
       </c>
       <c r="D6" s="233">
         <f>D4-D5</f>
-        <v>2391221734.333334</v>
+        <v>-21584637.333333492</v>
       </c>
       <c r="E6" s="233">
         <f t="shared" ref="E6:J6" si="3">E4-E5</f>
-        <v>3315212190.833333</v>
+        <v>122821528.66666651</v>
       </c>
       <c r="F6" s="233">
         <f t="shared" si="3"/>
-        <v>4100543748.458333</v>
+        <v>265308414.16666651</v>
       </c>
       <c r="G6" s="233">
         <f t="shared" si="3"/>
-        <v>5630434342.8307295</v>
+        <v>530769828.60076666</v>
       </c>
       <c r="H6" s="233">
         <f t="shared" si="3"/>
-        <v>7677661133.1342621</v>
+        <v>903281889.76237965</v>
       </c>
       <c r="I6" s="233">
         <f t="shared" si="3"/>
-        <v>10456602495.282057</v>
+        <v>1430259695.2232132</v>
       </c>
       <c r="J6" s="233">
         <f t="shared" si="3"/>
-        <v>14170355950.043184</v>
+        <v>2163447971.8980846</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -9649,33 +9575,33 @@
         <f>C5</f>
         <v>₹</v>
       </c>
-      <c r="D8" s="230">
+      <c r="D8" s="230" t="str">
         <f>IF(D6&gt;0,D6*D7,"NA")</f>
-        <v>597805433.58333349</v>
+        <v>NA</v>
       </c>
       <c r="E8" s="230">
         <f t="shared" ref="E8:J8" si="4">IF(E6&gt;0,E6*E7,"NA")</f>
-        <v>828803047.70833325</v>
+        <v>30705382.166666627</v>
       </c>
       <c r="F8" s="230">
         <f t="shared" si="4"/>
-        <v>1025135937.1145833</v>
+        <v>66327103.541666627</v>
       </c>
       <c r="G8" s="230">
         <f t="shared" si="4"/>
-        <v>1407608585.7076824</v>
+        <v>132692457.15019166</v>
       </c>
       <c r="H8" s="230">
         <f t="shared" si="4"/>
-        <v>1919415283.2835655</v>
+        <v>225820472.44059491</v>
       </c>
       <c r="I8" s="230">
         <f t="shared" si="4"/>
-        <v>2614150623.8205142</v>
+        <v>357564923.8058033</v>
       </c>
       <c r="J8" s="230">
         <f t="shared" si="4"/>
-        <v>3542588987.5107961</v>
+        <v>540861992.97452116</v>
       </c>
     </row>
     <row r="9" spans="2:10" s="221" customFormat="1" x14ac:dyDescent="0.35">
@@ -9688,31 +9614,31 @@
       </c>
       <c r="D9" s="235">
         <f>IFERROR(D6-D8,D6)</f>
-        <v>1793416300.7500005</v>
+        <v>-21584637.333333492</v>
       </c>
       <c r="E9" s="235">
         <f t="shared" ref="E9:J9" si="5">IFERROR(E6-E8,E6)</f>
-        <v>2486409143.125</v>
+        <v>92116146.499999881</v>
       </c>
       <c r="F9" s="235">
         <f t="shared" si="5"/>
-        <v>3075407811.34375</v>
+        <v>198981310.62499988</v>
       </c>
       <c r="G9" s="235">
         <f t="shared" si="5"/>
-        <v>4222825757.1230469</v>
+        <v>398077371.45057499</v>
       </c>
       <c r="H9" s="235">
         <f t="shared" si="5"/>
-        <v>5758245849.8506966</v>
+        <v>677461417.32178473</v>
       </c>
       <c r="I9" s="235">
         <f t="shared" si="5"/>
-        <v>7842451871.4615421</v>
+        <v>1072694771.4174099</v>
       </c>
       <c r="J9" s="235">
         <f t="shared" si="5"/>
-        <v>10627766962.532389</v>
+        <v>1622585978.9235635</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
@@ -9723,7 +9649,7 @@
         <v>134</v>
       </c>
       <c r="D11" s="218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
